--- a/Analisis & Diseno/Proyecto Bolsa de Empleos/Presupuesto.xlsx
+++ b/Analisis & Diseno/Proyecto Bolsa de Empleos/Presupuesto.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="61">
   <si>
     <t>Cree un presupuesto mensual personal en esta hoja de cálculo. Encontrará instrucciones útiles sobre cómo usar esta hoja de cálculo en las celdas de esta columna. Presione la flecha abajo para empezar.</t>
   </si>
@@ -168,9 +168,6 @@
     <t>DEV Junior (DEVJ)</t>
   </si>
   <si>
-    <t>Graphic Designer (GD)</t>
-  </si>
-  <si>
     <t>Verificacion Cumplimientos de Requisitos</t>
   </si>
   <si>
@@ -199,10 +196,6 @@
   </si>
   <si>
     <t>Monto previsto                                                                            (servidores)</t>
-  </si>
-  <si>
-    <t>Monto previsto
-(Licencias)</t>
   </si>
   <si>
     <t>Monto previsto
@@ -210,9 +203,6 @@
   </si>
   <si>
     <t xml:space="preserve"> ANL </t>
-  </si>
-  <si>
-    <t>DEV</t>
   </si>
   <si>
     <t>Total
@@ -231,6 +221,10 @@
       </rPr>
       <t xml:space="preserve">        Itinerario</t>
     </r>
+  </si>
+  <si>
+    <t>Monto previsto
+(Licencias MySQL)</t>
   </si>
 </sst>
 </file>
@@ -250,7 +244,7 @@
     <numFmt numFmtId="170" formatCode="0.0"/>
     <numFmt numFmtId="171" formatCode="#,##0;[Red]#,##0"/>
   </numFmts>
-  <fonts count="47">
+  <fonts count="48">
     <font>
       <sz val="10"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -578,6 +572,12 @@
       <color rgb="FF00B0F0"/>
       <name val="Cambria"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Lucida Sans"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="46">
@@ -1329,9 +1329,6 @@
     <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1343,60 +1340,6 @@
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="49" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="40" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="171" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1455,39 +1398,96 @@
     <xf numFmtId="0" fontId="31" fillId="41" borderId="26" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="40" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="43" fillId="40" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="40" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="27" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="27" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" xfId="49" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="49" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" xfId="49" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="49" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="49"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="49" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="49" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="49" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="49" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="40" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="40" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="43" fillId="40" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="40" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="40" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="169" fontId="11" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="40" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -1710,6 +1710,21 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Lucida Sans"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1726,21 +1741,6 @@
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <name val="Lucida Sans"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2156,8 +2156,8 @@
       <calculatedColumnFormula>Alojamiento[[#This Row],[Horas]]*Alojamiento[[#This Row],[ Dias]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="Personal" dataDxfId="11" totalsRowDxfId="3"/>
-    <tableColumn id="6" name="Cantidad Personal" dataDxfId="9" totalsRowDxfId="2"/>
-    <tableColumn id="7" name="Costo Personal" dataDxfId="10" totalsRowDxfId="1"/>
+    <tableColumn id="6" name="Cantidad Personal" dataDxfId="10" totalsRowDxfId="2"/>
+    <tableColumn id="7" name="Costo Personal" dataDxfId="9" totalsRowDxfId="1"/>
     <tableColumn id="5" name="Subtotal" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="0">
       <calculatedColumnFormula>Alojamiento[[#This Row],[Costo Personal]]*Alojamiento[[#This Row],[HxD]]*Alojamiento[[#This Row],[Cantidad Personal]]</calculatedColumnFormula>
     </tableColumn>
@@ -2400,7 +2400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
@@ -3496,86 +3496,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="138.75" customHeight="1" thickBot="1">
-      <c r="A1" s="89" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
+      <c r="A1" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
     </row>
     <row r="2" spans="1:27" ht="107.25" customHeight="1">
-      <c r="A2" s="80"/>
-      <c r="B2" s="81" t="s">
+      <c r="A2" s="61"/>
+      <c r="B2" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="83" t="s">
+      <c r="D2" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="E2" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="F2" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="G2" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="84" t="s">
+      <c r="H2" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="85" t="s">
+      <c r="I2" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="82" t="s">
+      <c r="J2" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="82" t="s">
+      <c r="K2" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="86"/>
-      <c r="M2" s="87" t="s">
+      <c r="L2" s="67"/>
+      <c r="M2" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
       <c r="Q2"/>
     </row>
     <row r="3" spans="1:27" ht="18" customHeight="1">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="78" t="s">
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="91"/>
-      <c r="O3" s="90"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="79"/>
     </row>
     <row r="4" spans="1:27" ht="17.25" customHeight="1">
       <c r="A4" s="23" t="s">
@@ -3597,12 +3597,12 @@
       <c r="I4" s="27"/>
       <c r="J4" s="27"/>
       <c r="K4" s="27"/>
-      <c r="L4" s="92"/>
+      <c r="L4" s="81"/>
       <c r="M4" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="91"/>
-      <c r="O4" s="90"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="79"/>
     </row>
     <row r="5" spans="1:27" ht="17.25" customHeight="1">
       <c r="A5" s="23" t="s">
@@ -3626,12 +3626,12 @@
       </c>
       <c r="J5" s="25"/>
       <c r="K5" s="25"/>
-      <c r="L5" s="92"/>
+      <c r="L5" s="81"/>
       <c r="M5" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="91"/>
-      <c r="O5" s="90"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="79"/>
     </row>
     <row r="6" spans="1:27" ht="17.25" customHeight="1">
       <c r="A6" s="23" t="s">
@@ -3649,12 +3649,12 @@
         <v>34</v>
       </c>
       <c r="K6" s="25"/>
-      <c r="L6" s="92"/>
+      <c r="L6" s="81"/>
       <c r="M6" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="91"/>
-      <c r="O6" s="90"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="79"/>
     </row>
     <row r="7" spans="1:27" ht="17.25" customHeight="1">
       <c r="A7" s="30" t="s">
@@ -3672,12 +3672,12 @@
       <c r="K7" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="92"/>
+      <c r="L7" s="81"/>
       <c r="M7" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="91"/>
-      <c r="O7" s="90"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="79"/>
       <c r="AA7" s="22" t="s">
         <v>28</v>
       </c>
@@ -3696,95 +3696,95 @@
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
-      <c r="L8" s="92"/>
+      <c r="L8" s="81"/>
       <c r="M8" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="N8" s="91"/>
-      <c r="O8" s="90"/>
+        <v>47</v>
+      </c>
+      <c r="N8" s="78"/>
+      <c r="O8" s="79"/>
     </row>
     <row r="9" spans="1:27">
-      <c r="A9" s="93"/>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="91"/>
-      <c r="O9" s="90"/>
+      <c r="A9" s="80"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="79"/>
     </row>
     <row r="10" spans="1:27">
-      <c r="A10" s="94"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="91"/>
-      <c r="O10" s="90"/>
+      <c r="A10" s="82"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="79"/>
     </row>
     <row r="11" spans="1:27" ht="53.25" customHeight="1">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="49"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="75"/>
+      <c r="O11" s="85"/>
     </row>
     <row r="12" spans="1:27">
-      <c r="O12" s="49"/>
+      <c r="O12" s="85"/>
     </row>
     <row r="13" spans="1:27">
-      <c r="O13" s="49"/>
+      <c r="O13" s="85"/>
     </row>
     <row r="14" spans="1:27">
-      <c r="O14" s="49"/>
+      <c r="O14" s="85"/>
     </row>
     <row r="15" spans="1:27">
-      <c r="O15" s="49"/>
+      <c r="O15" s="85"/>
     </row>
     <row r="16" spans="1:27">
-      <c r="O16" s="49"/>
+      <c r="O16" s="85"/>
     </row>
     <row r="17" spans="15:15">
-      <c r="O17" s="49"/>
+      <c r="O17" s="85"/>
     </row>
     <row r="18" spans="15:15">
-      <c r="O18" s="49"/>
+      <c r="O18" s="85"/>
     </row>
     <row r="19" spans="15:15">
-      <c r="O19" s="49"/>
+      <c r="O19" s="85"/>
     </row>
     <row r="20" spans="15:15">
-      <c r="O20" s="49"/>
+      <c r="O20" s="85"/>
     </row>
     <row r="21" spans="15:15">
-      <c r="O21" s="49"/>
+      <c r="O21" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3811,8 +3811,8 @@
   </sheetPr>
   <dimension ref="A1:N74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -3855,26 +3855,26 @@
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="102"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="88"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53">
+      <c r="E4" s="90" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="89">
         <f>Alojamiento[[#Totals],[Subtotal]]</f>
         <v>332200</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="24.95" customHeight="1">
-      <c r="B5" s="98"/>
-      <c r="C5" s="99"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="53"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="70"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="89"/>
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:14" ht="24.95" customHeight="1">
@@ -3882,66 +3882,58 @@
         <v>17</v>
       </c>
       <c r="C6" s="18"/>
-      <c r="E6" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="53">
-        <f>C13-J69</f>
-        <v>0</v>
+      <c r="E6" s="91" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="92"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="89">
+        <v>83325</v>
       </c>
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:14" ht="24.95" customHeight="1">
-      <c r="B7" s="73" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="74">
+      <c r="B7" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="55">
         <v>500</v>
       </c>
-      <c r="E7" s="61"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="53"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="89"/>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:14" ht="24.95" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="74">
+      <c r="C8" s="55">
         <v>700</v>
       </c>
-      <c r="E8" s="64"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="53"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="89"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:14" ht="24.95" customHeight="1">
-      <c r="B9" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="74">
-        <v>650</v>
-      </c>
+    <row r="9" spans="1:14" ht="39" hidden="1" customHeight="1">
+      <c r="B9" s="69"/>
+      <c r="C9" s="70"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="53">
-        <f>H6-H4</f>
-        <v>-332200</v>
-      </c>
+      <c r="E9" s="90" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="89"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:14" ht="24.95" customHeight="1">
+    <row r="10" spans="1:14" ht="36.75" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -3953,38 +3945,38 @@
         <v>1200</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="53"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="89"/>
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:14" ht="24.95" customHeight="1">
-      <c r="B11" s="100"/>
-      <c r="C11" s="101"/>
-      <c r="E11" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="53">
-        <f>H9-H6</f>
-        <v>-332200</v>
+      <c r="B11" s="71"/>
+      <c r="C11" s="72"/>
+      <c r="E11" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="89">
+        <f>H4+H6+H9</f>
+        <v>415525</v>
       </c>
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:14" ht="24.95" customHeight="1">
-      <c r="B12" s="98"/>
-      <c r="C12" s="99"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="53"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="70"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="89"/>
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:14" ht="24.95" customHeight="1">
-      <c r="B13" s="100"/>
-      <c r="C13" s="101"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="72"/>
     </row>
     <row r="15" spans="1:14" ht="24.95" customHeight="1">
       <c r="A15" s="4" t="s">
@@ -3997,21 +3989,21 @@
         <v>15</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="68" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="E15" s="49" t="s">
+        <v>51</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="69" t="s">
+      <c r="H15" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="50" t="s">
         <v>12</v>
       </c>
       <c r="J15" s="13"/>
@@ -4041,20 +4033,20 @@
       <c r="B17" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="67">
+      <c r="C17" s="48">
         <v>8</v>
       </c>
-      <c r="D17" s="67">
+      <c r="D17" s="48">
         <v>2</v>
       </c>
-      <c r="E17" s="67">
+      <c r="E17" s="48">
         <f>Alojamiento[[#This Row],[Horas]]*Alojamiento[[#This Row],[ Dias]]</f>
         <v>16</v>
       </c>
-      <c r="F17" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="70">
+      <c r="F17" s="103" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="51">
         <v>1</v>
       </c>
       <c r="H17" s="33">
@@ -4074,9 +4066,9 @@
       <c r="B18" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="33"/>
@@ -4091,20 +4083,20 @@
       <c r="B19" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="67">
+      <c r="C19" s="48">
         <v>5</v>
       </c>
-      <c r="D19" s="67">
+      <c r="D19" s="48">
         <v>1</v>
       </c>
-      <c r="E19" s="67">
+      <c r="E19" s="48">
         <f>Alojamiento[[#This Row],[Horas]]*Alojamiento[[#This Row],[ Dias]]</f>
         <v>5</v>
       </c>
-      <c r="F19" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" s="71">
+      <c r="F19" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="52">
         <v>2</v>
       </c>
       <c r="H19" s="33">
@@ -4124,20 +4116,20 @@
       <c r="B20" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="67">
+      <c r="C20" s="48">
         <v>5</v>
       </c>
-      <c r="D20" s="67">
+      <c r="D20" s="48">
         <v>1</v>
       </c>
-      <c r="E20" s="67">
+      <c r="E20" s="48">
         <f>Alojamiento[[#This Row],[Horas]]*Alojamiento[[#This Row],[ Dias]]</f>
         <v>5</v>
       </c>
-      <c r="F20" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="71">
+      <c r="F20" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="52">
         <v>2</v>
       </c>
       <c r="H20" s="33">
@@ -4157,20 +4149,20 @@
       <c r="B21" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="67">
+      <c r="C21" s="48">
         <v>6</v>
       </c>
-      <c r="D21" s="67">
+      <c r="D21" s="48">
         <v>6</v>
       </c>
-      <c r="E21" s="67">
+      <c r="E21" s="48">
         <f>Alojamiento[[#This Row],[Horas]]*Alojamiento[[#This Row],[ Dias]]</f>
         <v>36</v>
       </c>
-      <c r="F21" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="71">
+      <c r="F21" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="52">
         <v>2</v>
       </c>
       <c r="H21" s="33">
@@ -4193,11 +4185,11 @@
       <c r="B22" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="71"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="52"/>
       <c r="H22" s="33"/>
       <c r="I22" s="33"/>
       <c r="J22" s="13"/>
@@ -4210,20 +4202,20 @@
       <c r="B23" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="67">
+      <c r="C23" s="48">
         <v>3</v>
       </c>
-      <c r="D23" s="67">
+      <c r="D23" s="48">
         <v>1</v>
       </c>
-      <c r="E23" s="67">
+      <c r="E23" s="48">
         <f>Alojamiento[[#This Row],[Horas]]*Alojamiento[[#This Row],[ Dias]]</f>
         <v>3</v>
       </c>
-      <c r="F23" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" s="71">
+      <c r="F23" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="52">
         <v>1</v>
       </c>
       <c r="H23" s="33">
@@ -4243,20 +4235,20 @@
       <c r="B24" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="67">
+      <c r="C24" s="48">
         <v>8</v>
       </c>
-      <c r="D24" s="67">
+      <c r="D24" s="48">
         <v>6</v>
       </c>
-      <c r="E24" s="67">
+      <c r="E24" s="48">
         <f>Alojamiento[[#This Row],[Horas]]*Alojamiento[[#This Row],[ Dias]]</f>
         <v>48</v>
       </c>
-      <c r="F24" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="G24" s="71">
+      <c r="F24" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="52">
         <v>6</v>
       </c>
       <c r="H24" s="33">
@@ -4276,20 +4268,20 @@
       <c r="B25" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="67">
+      <c r="C25" s="48">
         <v>3</v>
       </c>
-      <c r="D25" s="67">
+      <c r="D25" s="48">
         <v>1</v>
       </c>
-      <c r="E25" s="67">
+      <c r="E25" s="48">
         <f>Alojamiento[[#This Row],[Horas]]*Alojamiento[[#This Row],[ Dias]]</f>
         <v>3</v>
       </c>
-      <c r="F25" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="G25" s="71">
+      <c r="F25" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="52">
         <v>6</v>
       </c>
       <c r="H25" s="33">
@@ -4307,22 +4299,22 @@
     </row>
     <row r="26" spans="1:14" ht="24.95" customHeight="1">
       <c r="B26" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="67">
+        <v>46</v>
+      </c>
+      <c r="C26" s="48">
         <v>5</v>
       </c>
-      <c r="D26" s="67">
+      <c r="D26" s="48">
         <v>1</v>
       </c>
-      <c r="E26" s="67">
+      <c r="E26" s="48">
         <f>Alojamiento[[#This Row],[Horas]]*Alojamiento[[#This Row],[ Dias]]</f>
         <v>5</v>
       </c>
-      <c r="F26" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="G26" s="71">
+      <c r="F26" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="52">
         <v>6</v>
       </c>
       <c r="H26" s="33">
@@ -4342,11 +4334,11 @@
       <c r="B27" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="71"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="52"/>
       <c r="H27" s="33"/>
       <c r="I27" s="33"/>
       <c r="J27" s="13"/>
@@ -4359,20 +4351,20 @@
       <c r="B28" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="67">
+      <c r="C28" s="48">
         <v>5</v>
       </c>
-      <c r="D28" s="67">
+      <c r="D28" s="48">
         <v>1</v>
       </c>
-      <c r="E28" s="67">
+      <c r="E28" s="48">
         <f>Alojamiento[[#This Row],[Horas]]*Alojamiento[[#This Row],[ Dias]]</f>
         <v>5</v>
       </c>
-      <c r="F28" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="G28" s="71">
+      <c r="F28" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="52">
         <v>3</v>
       </c>
       <c r="H28" s="33">
@@ -4392,11 +4384,11 @@
       <c r="B29" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="71"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="52"/>
       <c r="H29" s="33"/>
       <c r="I29" s="33"/>
       <c r="J29" s="13"/>
@@ -4409,20 +4401,20 @@
       <c r="B30" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="67">
+      <c r="C30" s="48">
         <v>3</v>
       </c>
-      <c r="D30" s="67">
+      <c r="D30" s="48">
         <v>1</v>
       </c>
-      <c r="E30" s="67">
+      <c r="E30" s="48">
         <f>Alojamiento[[#This Row],[Horas]]*Alojamiento[[#This Row],[ Dias]]</f>
         <v>3</v>
       </c>
-      <c r="F30" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="G30" s="71">
+      <c r="F30" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" s="52">
         <v>6</v>
       </c>
       <c r="H30" s="33">
@@ -4440,39 +4432,39 @@
     </row>
     <row r="31" spans="1:14" ht="24.95" customHeight="1">
       <c r="B31" s="22"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
       <c r="J31" s="13"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="55"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="86"/>
+      <c r="N31" s="86"/>
     </row>
     <row r="32" spans="1:14" ht="24.95" customHeight="1">
       <c r="B32" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="67">
+      <c r="C32" s="48">
         <f>SUBTOTAL(109,Alojamiento[Horas])</f>
         <v>51</v>
       </c>
-      <c r="D32" s="67">
+      <c r="D32" s="48">
         <f>SUBTOTAL(109,Alojamiento[[ Dias]])</f>
         <v>21</v>
       </c>
-      <c r="E32" s="67">
+      <c r="E32" s="48">
         <f>SUBTOTAL(109,Alojamiento[HxD])</f>
         <v>129</v>
       </c>
       <c r="F32" s="41"/>
       <c r="G32" s="41"/>
       <c r="H32" s="42"/>
-      <c r="I32" s="72">
+      <c r="I32" s="53">
         <f>SUBTOTAL(109,Alojamiento[Subtotal])</f>
         <v>332200</v>
       </c>
@@ -4486,10 +4478,10 @@
       <c r="A33" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
       <c r="F33" s="13"/>
       <c r="G33" s="9"/>
       <c r="H33" s="16"/>
@@ -4568,10 +4560,10 @@
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
       <c r="F40" s="13"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="55"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
+      <c r="J40" s="86"/>
     </row>
     <row r="41" spans="1:10" ht="24.95" customHeight="1">
       <c r="B41" s="9"/>
@@ -4599,10 +4591,10 @@
       <c r="A43" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="55"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
+      <c r="B43" s="86"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
       <c r="F43" s="13"/>
       <c r="G43" s="9"/>
       <c r="H43" s="16"/>
@@ -4648,10 +4640,10 @@
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
       <c r="F47" s="13"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="55"/>
-      <c r="J47" s="55"/>
+      <c r="G47" s="86"/>
+      <c r="H47" s="86"/>
+      <c r="I47" s="86"/>
+      <c r="J47" s="86"/>
     </row>
     <row r="48" spans="1:10" ht="24.95" customHeight="1">
       <c r="B48" s="9"/>
@@ -4679,10 +4671,10 @@
       <c r="A50" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="55"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="55"/>
+      <c r="B50" s="86"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
       <c r="F50" s="13"/>
       <c r="G50" s="9"/>
       <c r="H50" s="16"/>
@@ -4717,10 +4709,10 @@
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
       <c r="F53" s="13"/>
-      <c r="G53" s="55"/>
-      <c r="H53" s="55"/>
-      <c r="I53" s="55"/>
-      <c r="J53" s="55"/>
+      <c r="G53" s="86"/>
+      <c r="H53" s="86"/>
+      <c r="I53" s="86"/>
+      <c r="J53" s="86"/>
     </row>
     <row r="54" spans="1:10" ht="24.95" customHeight="1">
       <c r="B54" s="9"/>
@@ -4748,10 +4740,10 @@
       <c r="A56" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B56" s="55"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55"/>
+      <c r="B56" s="86"/>
+      <c r="C56" s="86"/>
+      <c r="D56" s="86"/>
+      <c r="E56" s="86"/>
       <c r="F56" s="13"/>
       <c r="G56" s="9"/>
       <c r="H56" s="16"/>
@@ -4786,10 +4778,10 @@
       <c r="D59" s="16"/>
       <c r="E59" s="16"/>
       <c r="F59" s="13"/>
-      <c r="G59" s="55"/>
-      <c r="H59" s="55"/>
-      <c r="I59" s="55"/>
-      <c r="J59" s="55"/>
+      <c r="G59" s="86"/>
+      <c r="H59" s="86"/>
+      <c r="I59" s="86"/>
+      <c r="J59" s="86"/>
     </row>
     <row r="60" spans="1:10" ht="24.95" customHeight="1">
       <c r="B60" s="9"/>
@@ -4839,10 +4831,10 @@
       <c r="A64" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="55"/>
-      <c r="C64" s="55"/>
-      <c r="D64" s="55"/>
-      <c r="E64" s="55"/>
+      <c r="B64" s="86"/>
+      <c r="C64" s="86"/>
+      <c r="D64" s="86"/>
+      <c r="E64" s="86"/>
       <c r="F64" s="13"/>
       <c r="G64" s="9"/>
       <c r="H64" s="16"/>
@@ -4866,10 +4858,10 @@
       <c r="D66" s="16"/>
       <c r="E66" s="16"/>
       <c r="F66" s="13"/>
-      <c r="G66" s="55"/>
-      <c r="H66" s="55"/>
-      <c r="I66" s="55"/>
-      <c r="J66" s="55"/>
+      <c r="G66" s="86"/>
+      <c r="H66" s="86"/>
+      <c r="I66" s="86"/>
+      <c r="J66" s="86"/>
     </row>
     <row r="67" spans="1:10" ht="24.95" customHeight="1">
       <c r="A67" s="4" t="s">
@@ -4880,10 +4872,10 @@
       <c r="D67" s="16"/>
       <c r="E67" s="16"/>
       <c r="F67" s="13"/>
-      <c r="G67" s="56"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="56"/>
-      <c r="J67" s="57"/>
+      <c r="G67" s="101"/>
+      <c r="H67" s="101"/>
+      <c r="I67" s="101"/>
+      <c r="J67" s="102"/>
     </row>
     <row r="68" spans="1:10" ht="24.95" customHeight="1">
       <c r="B68" s="9"/>
@@ -4891,10 +4883,10 @@
       <c r="D68" s="16"/>
       <c r="E68" s="16"/>
       <c r="F68" s="13"/>
-      <c r="G68" s="56"/>
-      <c r="H68" s="56"/>
-      <c r="I68" s="56"/>
-      <c r="J68" s="57"/>
+      <c r="G68" s="101"/>
+      <c r="H68" s="101"/>
+      <c r="I68" s="101"/>
+      <c r="J68" s="102"/>
     </row>
     <row r="69" spans="1:10" ht="24.95" customHeight="1">
       <c r="B69" s="9"/>
@@ -4902,10 +4894,10 @@
       <c r="D69" s="16"/>
       <c r="E69" s="16"/>
       <c r="F69" s="13"/>
-      <c r="G69" s="56"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="56"/>
-      <c r="J69" s="57"/>
+      <c r="G69" s="101"/>
+      <c r="H69" s="101"/>
+      <c r="I69" s="101"/>
+      <c r="J69" s="102"/>
     </row>
     <row r="70" spans="1:10" ht="24.95" customHeight="1">
       <c r="B70" s="9"/>
@@ -4913,10 +4905,10 @@
       <c r="D70" s="16"/>
       <c r="E70" s="16"/>
       <c r="F70" s="13"/>
-      <c r="G70" s="56"/>
-      <c r="H70" s="56"/>
-      <c r="I70" s="56"/>
-      <c r="J70" s="57"/>
+      <c r="G70" s="101"/>
+      <c r="H70" s="101"/>
+      <c r="I70" s="101"/>
+      <c r="J70" s="102"/>
     </row>
     <row r="71" spans="1:10" ht="24.95" customHeight="1">
       <c r="B71" s="9"/>
@@ -4924,10 +4916,10 @@
       <c r="D71" s="16"/>
       <c r="E71" s="16"/>
       <c r="F71" s="13"/>
-      <c r="G71" s="56"/>
-      <c r="H71" s="56"/>
-      <c r="I71" s="56"/>
-      <c r="J71" s="57"/>
+      <c r="G71" s="101"/>
+      <c r="H71" s="101"/>
+      <c r="I71" s="101"/>
+      <c r="J71" s="102"/>
     </row>
     <row r="72" spans="1:10" ht="24.95" customHeight="1">
       <c r="B72" s="9"/>
@@ -4935,10 +4927,10 @@
       <c r="D72" s="16"/>
       <c r="E72" s="16"/>
       <c r="F72" s="13"/>
-      <c r="G72" s="56"/>
-      <c r="H72" s="56"/>
-      <c r="I72" s="56"/>
-      <c r="J72" s="57"/>
+      <c r="G72" s="101"/>
+      <c r="H72" s="101"/>
+      <c r="I72" s="101"/>
+      <c r="J72" s="102"/>
     </row>
     <row r="73" spans="1:10" ht="15.75">
       <c r="B73" s="14"/>
@@ -4947,13 +4939,26 @@
       <c r="E73" s="16"/>
     </row>
     <row r="74" spans="1:10">
-      <c r="B74" s="54"/>
-      <c r="C74" s="54"/>
-      <c r="D74" s="54"/>
-      <c r="E74" s="54"/>
+      <c r="B74" s="100"/>
+      <c r="C74" s="100"/>
+      <c r="D74" s="100"/>
+      <c r="E74" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="G66:J66"/>
+    <mergeCell ref="G59:J59"/>
+    <mergeCell ref="G53:J53"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="G71:I72"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="G69:I70"/>
+    <mergeCell ref="G67:I68"/>
     <mergeCell ref="B56:E56"/>
     <mergeCell ref="B64:E64"/>
     <mergeCell ref="B4:C4"/>
@@ -4967,20 +4972,7 @@
     <mergeCell ref="B43:E43"/>
     <mergeCell ref="E11:G12"/>
     <mergeCell ref="H11:H12"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="G66:J66"/>
-    <mergeCell ref="G59:J59"/>
-    <mergeCell ref="G53:J53"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="G71:I72"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="G69:I70"/>
     <mergeCell ref="G40:J40"/>
-    <mergeCell ref="G67:I68"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="B50:E50"/>
   </mergeCells>
   <dataValidations count="12">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cree un presupuesto mensual personal en esta hoja de cálculo. Encontrará instrucciones útiles sobre cómo usar este libro en las celdas de esta columna. Use la flecha hacia abajo para empezar." sqref="A1"/>
@@ -5010,6 +5002,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1c2eb7a32e66fb6e4260f3771546a5e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04e1f6479c48b08974ba73b5ca973489" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -5220,15 +5220,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E4917D-B4E2-41EC-A344-CAB929C318ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB46AF36-0E29-43D5-9042-907F679B355D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5245,21 +5254,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E4917D-B4E2-41EC-A344-CAB929C318ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>